--- a/biology/Zoologie/Brandywell_Stadium/Brandywell_Stadium.xlsx
+++ b/biology/Zoologie/Brandywell_Stadium/Brandywell_Stadium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Brandywell Stadium (en Irlandais Tobar an Fhíoruisce), ou simplement Brandywell[2], est le stade municipal de la ville de Derry en Irlande du Nord. On y pratique le football et y sont organisées des courses de lévriers.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Brandywell Stadium (en Irlandais Tobar an Fhíoruisce), ou simplement Brandywell, est le stade municipal de la ville de Derry en Irlande du Nord. On y pratique le football et y sont organisées des courses de lévriers.
 Les clubs résidents sont Derry City FC et, de façon temporaire, Institute FC.
 </t>
         </is>
@@ -512,14 +524,16 @@
           <t>Localisation et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le stade est situé sur Lone Moor Road à proximité du Celtic Park, le quartier général du Derry GAA, au sud-ouest du quartier du Bogside. Il est à proche distance du centre-ville.
-Brandywell est situé dans un quartier majoritairement catholique et bastion du républicanisme irlandais. Cette situation géographique poussa Derry City FC à quitter le championnat d'Irlande du Nord en 1972 lors du conflit nord-irlandais[3]. Lors de la saison 2018-2019 du championnat d'Irlande du Nord, Institute FC, un club de la communauté protestante, y joue ses matchs à domicile[3], marquant le retour du championnat nord-irlandais au Brandywell pour la première fois depuis 1971[4].
-Le terrain du Brandywell a été pendant de nombreuses années en pente. L'écart entre l'une des extrémités du terrain et l'autre était de 9′ 0″ (2,74 m), réduite à 6′ 0″ (1,83 m) lors de la construction d'une nouvelle tribune en 1980. Depuis la rénovation de 2016-2018, le terrain est plat[1].
-Avant de devenir le terrain du Derry City FC en 1929, on y jouait déjà au football depuis le XIXe siècle[5]. Il accueillait notamment depuis 1922 les matchs organisés par la Derry &amp; District Football Association et servait également pour la North-West Football Association[6]. Il accueillait aussi les matches du club de Derry Celtic. En 1928, le stade était alors la propriété de The Honourable The Irish Society qui a accepté d'accueillir Derry City FC[6].
-Des courses de lévriers y sont organisées depuis les années 1930[5]. Lors de la rénovation de 2016-2018, la piste du cynodrome autour du terrain est supprimée et une nouvelle est construite à côté du stade de football[5]. 
-L’ensemble du Brandywell Stadium regroupe le stade, le cynodrome, les terrains d’entrainement, le club-house et la boutique du club de Derry City FC. Le propriétaire actuel du complexe est le district de Derry City and Strabane[5].
+Brandywell est situé dans un quartier majoritairement catholique et bastion du républicanisme irlandais. Cette situation géographique poussa Derry City FC à quitter le championnat d'Irlande du Nord en 1972 lors du conflit nord-irlandais. Lors de la saison 2018-2019 du championnat d'Irlande du Nord, Institute FC, un club de la communauté protestante, y joue ses matchs à domicile, marquant le retour du championnat nord-irlandais au Brandywell pour la première fois depuis 1971.
+Le terrain du Brandywell a été pendant de nombreuses années en pente. L'écart entre l'une des extrémités du terrain et l'autre était de 9′ 0″ (2,74 m), réduite à 6′ 0″ (1,83 m) lors de la construction d'une nouvelle tribune en 1980. Depuis la rénovation de 2016-2018, le terrain est plat.
+Avant de devenir le terrain du Derry City FC en 1929, on y jouait déjà au football depuis le XIXe siècle. Il accueillait notamment depuis 1922 les matchs organisés par la Derry &amp; District Football Association et servait également pour la North-West Football Association. Il accueillait aussi les matches du club de Derry Celtic. En 1928, le stade était alors la propriété de The Honourable The Irish Society qui a accepté d'accueillir Derry City FC.
+Des courses de lévriers y sont organisées depuis les années 1930. Lors de la rénovation de 2016-2018, la piste du cynodrome autour du terrain est supprimée et une nouvelle est construite à côté du stade de football. 
+L’ensemble du Brandywell Stadium regroupe le stade, le cynodrome, les terrains d’entrainement, le club-house et la boutique du club de Derry City FC. Le propriétaire actuel du complexe est le district de Derry City and Strabane.
 </t>
         </is>
       </c>
